--- a/Documentação/Processos MIS - Migração.xlsx
+++ b/Documentação/Processos MIS - Migração.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t>Solução</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>N:\Migracao\Contas a Pagar_LN\Contas a Pagar_LN\</t>
+  </si>
+  <si>
+    <t>Verificar na produção qual gera arquivo</t>
   </si>
 </sst>
 </file>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,7 +964,7 @@
         <v>114</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -1282,8 +1285,14 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -1293,8 +1302,11 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -1304,8 +1316,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -1327,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -1338,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -1349,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -1360,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
@@ -1393,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>83</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>84</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>85</v>
       </c>
@@ -1426,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>86</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>87</v>
       </c>

--- a/Documentação/Processos MIS - Migração.xlsx
+++ b/Documentação/Processos MIS - Migração.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>Solução</t>
   </si>
@@ -165,27 +165,12 @@
     <t>N:\Operacional\Garantia Estendida</t>
   </si>
   <si>
-    <t>N:\Operacional\Transportes</t>
-  </si>
-  <si>
-    <t>N:\Operacional\Volumetria</t>
-  </si>
-  <si>
-    <t>N:\Operacional\Logistica\Planejamento</t>
-  </si>
-  <si>
     <t>N:\Operacional\Colecao Elegiveis LogPeg e Retira em Loja</t>
   </si>
   <si>
     <t>N:\Operacional\Retira em Loja</t>
   </si>
   <si>
-    <t>N:\Operacional\Catalogo Eletronico</t>
-  </si>
-  <si>
-    <t>N:\Operacional\Embalagem Presente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Controle de Limite </t>
   </si>
   <si>
@@ -421,6 +406,24 @@
   </si>
   <si>
     <t>Tratamento de Arquivos, necesário migrar?</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Catalogo Eletronico_LN</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Embalagem Presente_LN</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Logistica\Planejamento_LN</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Volumetria_LN</t>
+  </si>
+  <si>
+    <t>Problema na execução ODS - DT_SAIDA Retornando Nula no ERP e ODS não permite valor Nulo</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Transportes_LN</t>
   </si>
 </sst>
 </file>
@@ -436,15 +439,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -467,14 +476,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +799,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,715 +820,745 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
+      <c r="A19" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1515,10 +1567,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1527,22 +1579,22 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1551,10 +1603,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1563,52 +1615,58 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1"/>
     </row>
@@ -1625,11 +1683,11 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -1638,10 +1696,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -1649,11 +1707,11 @@
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
+      <c r="A60" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -1661,11 +1719,11 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>77</v>
+      <c r="A61" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -1674,10 +1732,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -1686,10 +1744,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -1698,10 +1756,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -1710,10 +1768,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -1722,10 +1780,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -1735,9 +1793,13 @@
   </sheetData>
   <autoFilter ref="A1:D66">
     <sortState ref="A2:D66">
-      <sortCondition ref="D1:D66"/>
+      <sortCondition descending="1" ref="C1:C66"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E30"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
